--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -48,8 +48,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,41 +133,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C4" headerRowCount="1">
-  <autoFilter ref="A1:C4"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" headerRowCount="1">
+  <autoFilter ref="A1:D4"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
+    <tableColumn id="3" name="Measure Data Type"/>
+    <tableColumn id="4" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D2" headerRowCount="1">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Relationships" displayName="Relationships" ref="A1:G1" headerRowCount="1">
-  <autoFilter ref="A1:G1"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="From Table"/>
-    <tableColumn id="2" name="From Column"/>
-    <tableColumn id="3" name="To Table"/>
-    <tableColumn id="4" name="To Column"/>
-    <tableColumn id="5" name="State"/>
-    <tableColumn id="6" name="Direction"/>
-    <tableColumn id="7" name="Cardinality"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,79 +449,105 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Measure Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Measure Expression</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Measure Data Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Measure Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Number of States</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>DISTINCTCOUNT(LiteracyTable[State])</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>This calculation calculates the distinct number of states in the LiteracyTable. It counts the distinct state names in the LiteracyTable and returns the total number. This is useful for seeing how many different states are represented in the data.</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>DISTINCTCOUNT(LiteracyTable[State]) is a calculation used to determine the total number of unique states present in the LiteracyTable. It means that the DISTINCTCOUNT counts the different states, removing any duplicate states if present. This calculation is useful for providing an overview</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Number of Cities</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>COUNTAX(FILTER(LiteracyTable, 'LiteracyTable'[Level] = "City"), [City])</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>This calculation is counting the number of cities in the LiteracyTable that have a level value of "City". This can help a business assess its efforts in educating cities across a certain country and determine how well the literacy rate of its citizens is being improved over time.</t>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>This calculation counts the total number of cities in the LiteracyTable that have a Level of "City". It accomplishes this by filtering the table to only include rows where the Level is equal to "City" and then counting the number of entries in the City column.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Number of UA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>COUNTAX(FILTER(LiteracyTable, 'LiteracyTable'[Level] = "UA"), [City])</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>This calculation counts the number of cities with a literacy level of "UA" from a table called LiteracyTable. The FILTER function is used to narrow down the LiteracyTable to only rows that have a Level of "UA" and the COUNTAX function them counts the cities from this filtered table.</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>int64</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>This calculation counts how many cities there are in the LiteracyTable where the Level is equal to 'UA'. It will return the number of cities which meet this criteria.</t>
         </is>
       </c>
     </row>
@@ -546,53 +565,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Table Source</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modification</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>LiteracyTable</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Excel.Workbook</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>"C:\Users\MAQ\Downloads\Problem Set 5\Problem Set 5\Problem Set 5\Literacy.xlsx"</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(LiteracyTable_Table,{{"State Code", Int64.Type}, {"State Name", type text}, {"District Code", Int64.Type}, {"Name of Urban Agglomeration/City", type text}, {"Level", type text}, {"Population ", Int64.Type}, {"Population(Male)", Int64.Type}, {"Population(Female)", Int64.Type}, {"0-6 Population", Int64.Type}, {"Literates", Int64.Type}, {"Literates(Male)", Int64.Type}, {"Literates(Female)", Int64.Type}, {"Sex Ratio", Int64.Type}, {"Child Sex Ratio (0-6 Years", Int64.Type}, {"Effective Literacy Rate (7+ Pop)", type number}, {"Literacy Rate(Male)", type number}, {"Literacy Rate (Female)", type number}}),
+    #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type", {{"State Code", 33}}),
+    #"Renamed Columns" = Table.RenameColumns(#"Replaced Errors",{{"Name of Urban Agglomeration/City", "City"}}),
+    #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "City", Splitter.SplitTextByEachDelimiter({" "}, QuoteStyle.Csv, false), {"City.1", "City.2"}),
+    #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"City.1", type text}, {"City.2", type text}}),
+    #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"City.2"}),
+    #"Renamed Columns1" = Table.RenameColumns(#"Removed Columns",{{"City.1", "City"}, {"State Name", "State"}})
+in
+    #"Renamed Columns1"</t>
         </is>
       </c>
     </row>
@@ -605,60 +660,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>From Table</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>From Column</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>To Table</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>To Column</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Cardinality</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>No relationships present in this file</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>DISTINCTCOUNT(LiteracyTable[State]) is a calculation used to determine the total number of unique states present in the LiteracyTable. It means that the DISTINCTCOUNT counts the different states, removing any duplicate states if present. This calculation is useful for providing an overview</t>
+          <t>The DISTINCTCOUNT function in DAX counts the number of distinct states in the LiteracyTable. This provides a count of the total number of distinct states present in the table.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the total number of cities in the LiteracyTable that have a Level of "City". It accomplishes this by filtering the table to only include rows where the Level is equal to "City" and then counting the number of entries in the City column.</t>
+          <t>This calculation is counting the number of unique cities from the LiteracyTable table that have a value in their Level column of "City". It is ignoring any row from the table that does not have "City" in the Level column.</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts how many cities there are in the LiteracyTable where the Level is equal to 'UA'. It will return the number of cities which meet this criteria.</t>
+          <t>This calculation counts how many cities have a literacy level of "UA" in the LiteracyTable. It filters the table to only show rows with Literacy Level of "UA" and then count how many cities appear in that filtered table.</t>
         </is>
       </c>
     </row>
@@ -639,15 +639,14 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Changed Type" = Table.TransformColumnTypes(LiteracyTable_Table,{{"State Code", Int64.Type}, {"State Name", type text}, {"District Code", Int64.Type}, {"Name of Urban Agglomeration/City", type text}, {"Level", type text}, {"Population ", Int64.Type}, {"Population(Male)", Int64.Type}, {"Population(Female)", Int64.Type}, {"0-6 Population", Int64.Type}, {"Literates", Int64.Type}, {"Literates(Male)", Int64.Type}, {"Literates(Female)", Int64.Type}, {"Sex Ratio", Int64.Type}, {"Child Sex Ratio (0-6 Years", Int64.Type}, {"Effective Literacy Rate (7+ Pop)", type number}, {"Literacy Rate(Male)", type number}, {"Literacy Rate (Female)", type number}}),
-    #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type", {{"State Code", 33}}),
-    #"Renamed Columns" = Table.RenameColumns(#"Replaced Errors",{{"Name of Urban Agglomeration/City", "City"}}),
-    #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "City", Splitter.SplitTextByEachDelimiter({" "}, QuoteStyle.Csv, false), {"City.1", "City.2"}),
-    #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"City.1", type text}, {"City.2", type text}}),
-    #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"City.2"}),
-    #"Renamed Columns1" = Table.RenameColumns(#"Removed Columns",{{"City.1", "City"}, {"State Name", "State"}})
-in
-    #"Renamed Columns1"</t>
+          <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(LiteracyTable_Table,{{"State Code", Int64.Type}, {"State Name", type text}, {"District Code", Int64.Type}, {"Name of Urban Agglomeration/City", type text}, {"Level", type text}, {"Population ", Int64.Type}, {"Population(Male)", Int64.Type}, {"Population(Female)", Int64.Type}, {"0-6 Population", Int64.Type}, {"Literates", Int64.Type}, {"Literates(Male)", Int64.Type}, {"Literates(Female)", Int64.Type}, {"Sex Ratio", Int64.Type}, {"Child Sex Ratio (0-6 Years", Int64.Type}, {"Effective Literacy Rate (7+ Pop)", type number}, {"Literacy Rate(Male)", type number}, {"Literacy Rate (Female)", type number}}),
+2. #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type", {{"State Code", 33}}),
+3. #"Renamed Columns" = Table.RenameColumns(#"Replaced Errors",{{"Name of Urban Agglomeration/City", "City"}}),
+4. #"Split Column by Delimiter" = Table.SplitColumn(#"Renamed Columns", "City", Splitter.SplitTextByEachDelimiter({" "}, QuoteStyle.Csv, false), {"City.1", "City.2"}),
+5. #"Changed Type1" = Table.TransformColumnTypes(#"Split Column by Delimiter",{{"City.1", type text}, {"City.2", type text}}),
+6. #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"City.2"}),
+7. #"Renamed Columns1" = Table.RenameColumns(#"Removed Columns",{{"City.1", "City"}, {"State Name", "State"}})
+</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -146,15 +146,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,7 +504,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>The DISTINCTCOUNT function in DAX counts the number of distinct states in the LiteracyTable. This provides a count of the total number of distinct states present in the table.</t>
+          <t>DISTINCTCOUNT(LiteracyTable[State]): This calculation is counting the distinct number of states in the LiteracyTable. This calculation is useful for finding out how many different states have literacy data available in this table.</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of unique cities from the LiteracyTable table that have a value in their Level column of "City". It is ignoring any row from the table that does not have "City" in the Level column.</t>
+          <t>The calculation counts the number of cities in the LiteracyTable. It filters the table based on the Level column being equal to City, and then counts the distinct entries in the City column.</t>
         </is>
       </c>
     </row>
@@ -547,7 +548,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts how many cities have a literacy level of "UA" in the LiteracyTable. It filters the table to only show rows with Literacy Level of "UA" and then count how many cities appear in that filtered table.</t>
+          <t>This calculation counts the number of records in the LiteracyTable table in which the Level column is equal to "UA" and the City column contains a value. In other words, it's a way to count the number of cities with a literacy rate at the "UA" level.</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,10 +576,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -604,10 +606,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -634,10 +641,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>LiteracyTable_Table</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Changed Type" = Table.TransformColumnTypes(LiteracyTable_Table,{{"State Code", Int64.Type}, {"State Name", type text}, {"District Code", Int64.Type}, {"Name of Urban Agglomeration/City", type text}, {"Level", type text}, {"Population ", Int64.Type}, {"Population(Male)", Int64.Type}, {"Population(Female)", Int64.Type}, {"0-6 Population", Int64.Type}, {"Literates", Int64.Type}, {"Literates(Male)", Int64.Type}, {"Literates(Female)", Int64.Type}, {"Sex Ratio", Int64.Type}, {"Child Sex Ratio (0-6 Years", Int64.Type}, {"Effective Literacy Rate (7+ Pop)", type number}, {"Literacy Rate(Male)", type number}, {"Literacy Rate (Female)", type number}}),
 2. #"Replaced Errors" = Table.ReplaceErrorValues(#"Changed Type", {{"State Code", 33}}),

--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -146,9 +146,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:H2" headerRowCount="1">
+  <autoFilter ref="A1:H2"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -156,6 +156,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>DISTINCTCOUNT(LiteracyTable[State]): This calculation is counting the distinct number of states in the LiteracyTable. This calculation is useful for finding out how many different states have literacy data available in this table.</t>
+          <t>DISTINCTCOUNT(LiteracyTable[State]) is a calculation that counts the number of unique states that appear in the LiteracyTable. This calculation will produce a value which indicates how many individual states are in the LiteracyTable. This can be used to gain insights into the geographical spread of</t>
         </is>
       </c>
     </row>
@@ -526,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>The calculation counts the number of cities in the LiteracyTable. It filters the table based on the Level column being equal to City, and then counts the distinct entries in the City column.</t>
+          <t>This calculation counts the number of cities that have a LiteracyTable entry with a Level of "City". It filters the LiteracyTable based on the Level field and then counts the cities that are displayed in the filter.</t>
         </is>
       </c>
     </row>
@@ -548,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of records in the LiteracyTable table in which the Level column is equal to "UA" and the City column contains a value. In other words, it's a way to count the number of cities with a literacy rate at the "UA" level.</t>
+          <t>This calculation is checking the count of cities in the LiteracyTable that have a Level of "UA". This can be used to evaluate the number of cities in a certain area that have a below average literacy rate.</t>
         </is>
       </c>
     </row>
@@ -566,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +582,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -617,6 +619,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
         </is>
       </c>
     </row>
@@ -659,6 +666,11 @@
 6. #"Removed Columns" = Table.RemoveColumns(#"Changed Type1",{"City.2"}),
 7. #"Renamed Columns1" = Table.RenameColumns(#"Removed Columns",{{"City.1", "City"}, {"State Name", "State"}})
 </t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>This code involves the manipulation of a table containing information about literacy. Firstly, the types of each column was changed (for example, State Code became an integer type) and then some values were replaced. There were two columns containing the name of an urban agglomeration or a city which was split using the delimiter “ “. The types of these two new columns were then changed and the column “City.2” was removed. Finally, the columns “City.1” and “State Name” were renamed to “City” and “State” respectively.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>DISTINCTCOUNT(LiteracyTable[State]) is a calculation that counts the number of unique states that appear in the LiteracyTable. This calculation will produce a value which indicates how many individual states are in the LiteracyTable. This can be used to gain insights into the geographical spread of</t>
+          <t>This calculation gives the total number of distinct states counted in the literacy table. It excludes duplicates, so if a state appears multiple times it will only be counted once. This is useful for getting the total number of states with literacy data in the table.</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of cities that have a LiteracyTable entry with a Level of "City". It filters the LiteracyTable based on the Level field and then counts the cities that are displayed in the filter.</t>
+          <t>This calculation counts the number of cities in the LiteracyTable that have a Level of City. This number can be used to get a better understanding of the literacy rate at a city level compared to the state and country levels.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is checking the count of cities in the LiteracyTable that have a Level of "UA". This can be used to evaluate the number of cities in a certain area that have a below average literacy rate.</t>
+          <t>This calculation is counting the number of cities in the literacy table that have a level category of "UA". Therefore, it returns the total number of cities that have a literacy level of "UA".</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code involves the manipulation of a table containing information about literacy. Firstly, the types of each column was changed (for example, State Code became an integer type) and then some values were replaced. There were two columns containing the name of an urban agglomeration or a city which was split using the delimiter “ “. The types of these two new columns were then changed and the column “City.2” was removed. Finally, the columns “City.1” and “State Name” were renamed to “City” and “State” respectively.</t>
+          <t>This code is transforming a table of data. It is changing the types of certain columns in the table, such as text, number, and integers. It is also replacing any errors found in the table and renaming some of the columns. Finally, it splits one of the columns into two, and then deletes one of them. The code is meant to improve the usability and accuracy of the data.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation gives the total number of distinct states counted in the literacy table. It excludes duplicates, so if a state appears multiple times it will only be counted once. This is useful for getting the total number of states with literacy data in the table.</t>
+          <t>This calculation is returning the number of distinct States in the 'LiteracyTable.' This calculation will count each State only once so if the same State appears multiple times in the data, it is only counted once. This can be useful for analyzing literacy statistics across the United States.</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of cities in the LiteracyTable that have a Level of City. This number can be used to get a better understanding of the literacy rate at a city level compared to the state and country levels.</t>
+          <t>This calculation counts the number of cities within a data table called LiteracyTable. The number of cities counted will only count those with a Level value of "City".</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of cities in the literacy table that have a level category of "UA". Therefore, it returns the total number of cities that have a literacy level of "UA".</t>
+          <t>This calculation is counting the number of cities in the LiteracyTable that have a Level value of "UA". The FILTER function is used to narrow down the table to rows that have a Level value of "UA". The COUNTAX function is then used to count the number of cities that are present in</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This code is transforming a table of data. It is changing the types of certain columns in the table, such as text, number, and integers. It is also replacing any errors found in the table and renaming some of the columns. Finally, it splits one of the columns into two, and then deletes one of them. The code is meant to improve the usability and accuracy of the data.</t>
+          <t>This is a code that reorganizes data from a table named "LiteracyTable" by changing the type of each column to the corresponding data type (text, number, etc.), replacing any errors with the number 33, renaming columns, splitting columns by delimiter, and removing certain columns. In the end, it renames certain columns and outputs the final table.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment5.xlsx
+++ b/EXCEL Output/Assignment5.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is returning the number of distinct States in the 'LiteracyTable.' This calculation will count each State only once so if the same State appears multiple times in the data, it is only counted once. This can be useful for analyzing literacy statistics across the United States.</t>
+          <t>DISTINCTCOUNT(LiteracyTable[State]) is a calculation that gives the number of distinct states present in the LiteracyTable. This calculation will give the distinct number of states, without counting any duplicate states that may be present. This calculation can help the business to understand the number of states</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of cities within a data table called LiteracyTable. The number of cities counted will only count those with a Level value of "City".</t>
+          <t>This calculation returns the total count of distinct cities for which literacy data exists in the LiteracyTable in Power BI. It filters the table for level "City" and counts all of the unique cities present.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of cities in the LiteracyTable that have a Level value of "UA". The FILTER function is used to narrow down the table to rows that have a Level value of "UA". The COUNTAX function is then used to count the number of cities that are present in</t>
+          <t>This calculation counts how many cities have a literacy rate at the "UA" level in the LiteracyTable. This can give insight into how many cities are at a certain educational level, which can be useful in determining how much money should be allocated to certain schools or whether certain educational programs are being effective.</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -670,7 +670,14 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>This is a code that reorganizes data from a table named "LiteracyTable" by changing the type of each column to the corresponding data type (text, number, etc.), replacing any errors with the number 33, renaming columns, splitting columns by delimiter, and removing certain columns. In the end, it renames certain columns and outputs the final table.</t>
+          <t xml:space="preserve">1. The function "Changed Type" is changing the data types of the columns in the LiteracyTable_Table to integer, text, and number.
+2. It replaces any errors in the changed type table with the value 33 for the State Code column.
+3. This sentence is saying that the "Name of Urban Agglomeration/City" column has been renamed as "City".
+4. It is a way of taking a column from a table, splitting it into multiple columns by a given delimiter (such as a space), and renaming them in a specific way.
+5. Table.TransformColumnTypes changes the data type of the columns "City.1" and "City.2" from the Split Column by Delimiter table to text.
+6. This removes the column called "City.2" from the table "Changed Type1".
+7. This sentence renames the "City.1" and "State Name" columns in the "Removed Columns" table to "City" and "State" respectively.
+</t>
         </is>
       </c>
     </row>
